--- a/Exam Report.xlsx
+++ b/Exam Report.xlsx
@@ -50,7 +50,7 @@
     <t>INFORMATIKA</t>
   </si>
   <si>
-    <t>Ispitni rok feb23</t>
+    <t>Ispitni rok mart23</t>
   </si>
   <si>
     <t>Matematika</t>
